--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Provident.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Provident.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC46E740-6E37-46A5-B96C-18645063CC1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF14E68A-4C7C-4E7A-B755-5BEB6EECCE50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>company_code</t>
   </si>
@@ -57,6 +57,27 @@
   <si>
     <t>รหัส กองทุนสำรองเลี้ยงชีพ
 ความยาวไม่เกิน 10ตัว</t>
+  </si>
+  <si>
+    <t>กองทุนสำรองเลี้ยงชีพทิสโก้ มาสเต้อร์</t>
+  </si>
+  <si>
+    <t>กองทุนสำรองเลี้ยงชีพทิสโก้ มาสเต้อร์(4:6)</t>
+  </si>
+  <si>
+    <t>กองทุนสำรองเลี้ยงชีพทิสโก้ มาสเต้อร์(5:6)</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>OPR</t>
   </si>
 </sst>
 </file>
@@ -133,7 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -150,6 +171,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -469,7 +492,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -477,8 +500,8 @@
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
     <col min="2" max="2" width="16.6328125" customWidth="1"/>
     <col min="3" max="3" width="17.6328125" customWidth="1"/>
-    <col min="4" max="4" width="18.36328125" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="38.6328125" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
     <col min="6" max="6" width="20.453125" customWidth="1"/>
     <col min="7" max="7" width="20.90625" customWidth="1"/>
     <col min="8" max="8" width="20.54296875" customWidth="1"/>
@@ -516,21 +539,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531BCD0-4192-4C71-AD67-2D133BDCFFF2}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="25.6328125" style="5" customWidth="1"/>
+    <col min="1" max="3" width="25.6328125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="37.1796875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="5" customWidth="1"/>
     <col min="7" max="14" width="8.7265625" style="5"/>
     <col min="15" max="15" width="8.7265625" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -563,6 +589,42 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Provident.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll Provident.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF14E68A-4C7C-4E7A-B755-5BEB6EECCE50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D50C994-028F-47DB-8E79-37223F5CA163}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>company_code</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>provident_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
@@ -78,6 +75,15 @@
   </si>
   <si>
     <t>OPR</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
@@ -154,7 +160,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -173,6 +179,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -492,7 +501,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C531BCD0-4192-4C71-AD67-2D133BDCFFF2}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:A23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,29 +560,32 @@
     <col min="4" max="4" width="32.81640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="37.1796875" style="5" customWidth="1"/>
     <col min="6" max="6" width="25.6328125" style="5" customWidth="1"/>
-    <col min="7" max="14" width="8.7265625" style="5"/>
+    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="9" max="14" width="8.7265625" style="5"/>
     <col min="15" max="15" width="8.7265625" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,44 +601,53 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="6"/>
     </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>